--- a/Code/Results/Cases/Case_4_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.040526273476428</v>
+        <v>1.102082522762076</v>
       </c>
       <c r="D2">
-        <v>1.051421368944528</v>
+        <v>1.094257490690614</v>
       </c>
       <c r="E2">
-        <v>1.057002773944746</v>
+        <v>1.113391606586077</v>
       </c>
       <c r="F2">
-        <v>1.061129923681173</v>
+        <v>1.114997830539742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062624750637719</v>
+        <v>1.059956023969702</v>
       </c>
       <c r="J2">
-        <v>1.061558910274806</v>
+        <v>1.106857096876727</v>
       </c>
       <c r="K2">
-        <v>1.062207956098015</v>
+        <v>1.096895294349004</v>
       </c>
       <c r="L2">
-        <v>1.067721234527056</v>
+        <v>1.115981648082747</v>
       </c>
       <c r="M2">
-        <v>1.071798580303828</v>
+        <v>1.11758394284288</v>
       </c>
       <c r="N2">
-        <v>1.063066445689905</v>
+        <v>1.108428960912575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052657040373066</v>
+        <v>1.10422154200374</v>
       </c>
       <c r="D3">
-        <v>1.061179474566891</v>
+        <v>1.095949256407573</v>
       </c>
       <c r="E3">
-        <v>1.068536705716842</v>
+        <v>1.115464572156477</v>
       </c>
       <c r="F3">
-        <v>1.072350359274644</v>
+        <v>1.11700462431261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067106103992734</v>
+        <v>1.060581209124672</v>
       </c>
       <c r="J3">
-        <v>1.07180835527889</v>
+        <v>1.108660130122111</v>
       </c>
       <c r="K3">
-        <v>1.071085115751571</v>
+        <v>1.098405816743618</v>
       </c>
       <c r="L3">
-        <v>1.078361780879342</v>
+        <v>1.117876004065712</v>
       </c>
       <c r="M3">
-        <v>1.082134206005269</v>
+        <v>1.119412566801111</v>
       </c>
       <c r="N3">
-        <v>1.073330446081523</v>
+        <v>1.110234554671979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.060148181329562</v>
+        <v>1.105599835991208</v>
       </c>
       <c r="D4">
-        <v>1.067202862382657</v>
+        <v>1.097038368185687</v>
       </c>
       <c r="E4">
-        <v>1.075664300714705</v>
+        <v>1.1168004306016</v>
       </c>
       <c r="F4">
-        <v>1.079283532086526</v>
+        <v>1.118297647980167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06985314112898</v>
+        <v>1.060981636179896</v>
       </c>
       <c r="J4">
-        <v>1.078129118418673</v>
+        <v>1.109820776565464</v>
       </c>
       <c r="K4">
-        <v>1.076552614861511</v>
+        <v>1.0993771794384</v>
       </c>
       <c r="L4">
-        <v>1.084927868050158</v>
+        <v>1.119095881899714</v>
       </c>
       <c r="M4">
-        <v>1.088510737039682</v>
+        <v>1.120589880915466</v>
       </c>
       <c r="N4">
-        <v>1.079660185429966</v>
+        <v>1.11139684936641</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.063219148063141</v>
+        <v>1.10617791521561</v>
       </c>
       <c r="D5">
-        <v>1.069671351384483</v>
+        <v>1.097494921465341</v>
       </c>
       <c r="E5">
-        <v>1.078587313671415</v>
+        <v>1.117360741291013</v>
       </c>
       <c r="F5">
-        <v>1.082126622262571</v>
+        <v>1.118839945891896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070974330809216</v>
+        <v>1.061149003011765</v>
       </c>
       <c r="J5">
-        <v>1.080718156902192</v>
+        <v>1.110307294651117</v>
       </c>
       <c r="K5">
-        <v>1.078790445305665</v>
+        <v>1.099784116697289</v>
       </c>
       <c r="L5">
-        <v>1.087618369330683</v>
+        <v>1.119607335066373</v>
       </c>
       <c r="M5">
-        <v>1.091123217481263</v>
+        <v>1.121083432109933</v>
       </c>
       <c r="N5">
-        <v>1.082252900645099</v>
+        <v>1.111884058363549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.063730382479567</v>
+        <v>1.106274898684202</v>
       </c>
       <c r="D6">
-        <v>1.070082239104125</v>
+        <v>1.097571502715146</v>
       </c>
       <c r="E6">
-        <v>1.079073978006084</v>
+        <v>1.117454745477548</v>
       </c>
       <c r="F6">
-        <v>1.082599968050155</v>
+        <v>1.118930925331829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071160686026339</v>
+        <v>1.06117704792098</v>
       </c>
       <c r="J6">
-        <v>1.081149035408286</v>
+        <v>1.110388900839612</v>
       </c>
       <c r="K6">
-        <v>1.079162773260734</v>
+        <v>1.099852360461777</v>
       </c>
       <c r="L6">
-        <v>1.088066190721889</v>
+        <v>1.119693129993999</v>
       </c>
       <c r="M6">
-        <v>1.091558031754175</v>
+        <v>1.12116622071361</v>
       </c>
       <c r="N6">
-        <v>1.082684391048093</v>
+        <v>1.111965780442192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.060189514351781</v>
+        <v>1.105607565598013</v>
       </c>
       <c r="D7">
-        <v>1.067236089773883</v>
+        <v>1.097044473783927</v>
       </c>
       <c r="E7">
-        <v>1.075703638246318</v>
+        <v>1.116807922506335</v>
       </c>
       <c r="F7">
-        <v>1.079321794814818</v>
+        <v>1.118304899218307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069868251276086</v>
+        <v>1.060983876350748</v>
       </c>
       <c r="J7">
-        <v>1.078163973600995</v>
+        <v>1.109827282977454</v>
       </c>
       <c r="K7">
-        <v>1.076582748674203</v>
+        <v>1.099382622515685</v>
       </c>
       <c r="L7">
-        <v>1.084964085328119</v>
+        <v>1.11910272135998</v>
       </c>
       <c r="M7">
-        <v>1.088545905469328</v>
+        <v>1.12059648120198</v>
       </c>
       <c r="N7">
-        <v>1.079695090110644</v>
+        <v>1.11140336501825</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.044704952927084</v>
+        <v>1.102806633291052</v>
       </c>
       <c r="D8">
-        <v>1.05478317575111</v>
+        <v>1.094830400105281</v>
       </c>
       <c r="E8">
-        <v>1.060974707998476</v>
+        <v>1.114093329604487</v>
       </c>
       <c r="F8">
-        <v>1.064994030347131</v>
+        <v>1.115677193493949</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064172738445963</v>
+        <v>1.060168165876118</v>
       </c>
       <c r="J8">
-        <v>1.065091319135356</v>
+        <v>1.107467706993061</v>
       </c>
       <c r="K8">
-        <v>1.065268889173295</v>
+        <v>1.097407048860958</v>
       </c>
       <c r="L8">
-        <v>1.071387539943278</v>
+        <v>1.116623092760034</v>
       </c>
       <c r="M8">
-        <v>1.075360110863305</v>
+        <v>1.118203178927321</v>
       </c>
       <c r="N8">
-        <v>1.06660387097621</v>
+        <v>1.109040438165313</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014269729751513</v>
+        <v>1.097825220251417</v>
       </c>
       <c r="D9">
-        <v>1.030294706826434</v>
+        <v>1.090885095374592</v>
       </c>
       <c r="E9">
-        <v>1.032074281537469</v>
+        <v>1.109266479333308</v>
       </c>
       <c r="F9">
-        <v>1.036876372326778</v>
+        <v>1.111003359379538</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052810269640049</v>
+        <v>1.058698800623202</v>
       </c>
       <c r="J9">
-        <v>1.039328458232981</v>
+        <v>1.103262353031657</v>
       </c>
       <c r="K9">
-        <v>1.042914677216948</v>
+        <v>1.093878445989734</v>
       </c>
       <c r="L9">
-        <v>1.044667559766448</v>
+        <v>1.112207222124352</v>
       </c>
       <c r="M9">
-        <v>1.049398204108003</v>
+        <v>1.113939228856248</v>
       </c>
       <c r="N9">
-        <v>1.040804423856312</v>
+        <v>1.104829112118922</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9911431873705299</v>
+        <v>1.094471455128121</v>
       </c>
       <c r="D10">
-        <v>1.011695843113485</v>
+        <v>1.088223825177023</v>
       </c>
       <c r="E10">
-        <v>1.010161542053903</v>
+        <v>1.106017498461618</v>
       </c>
       <c r="F10">
-        <v>1.015556732699007</v>
+        <v>1.107856387145977</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044066481423827</v>
+        <v>1.057697009426221</v>
       </c>
       <c r="J10">
-        <v>1.019712664675265</v>
+        <v>1.100425103254182</v>
       </c>
       <c r="K10">
-        <v>1.025857088391457</v>
+        <v>1.091492654907747</v>
       </c>
       <c r="L10">
-        <v>1.024349718904182</v>
+        <v>1.109230269500414</v>
       </c>
       <c r="M10">
-        <v>1.029650673743966</v>
+        <v>1.111063476907644</v>
       </c>
       <c r="N10">
-        <v>1.021160773621781</v>
+        <v>1.101987833121326</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9802318338218735</v>
+        <v>1.093010997907081</v>
       </c>
       <c r="D11">
-        <v>1.002928182302714</v>
+        <v>1.087063736425201</v>
       </c>
       <c r="E11">
-        <v>0.9998382629493955</v>
+        <v>1.104602852858471</v>
       </c>
       <c r="F11">
-        <v>1.005513592301718</v>
+        <v>1.10648592501369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039916889305229</v>
+        <v>1.057257792958209</v>
       </c>
       <c r="J11">
-        <v>1.010450759538711</v>
+        <v>1.099188158614302</v>
       </c>
       <c r="K11">
-        <v>1.017795087861484</v>
+        <v>1.090451317775457</v>
       </c>
       <c r="L11">
-        <v>1.014763230038908</v>
+        <v>1.107932972532389</v>
       </c>
       <c r="M11">
-        <v>1.020332274051762</v>
+        <v>1.109809993944096</v>
       </c>
       <c r="N11">
-        <v>1.011885715517578</v>
+        <v>1.100749131878178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9760178983802784</v>
+        <v>1.092467239402929</v>
       </c>
       <c r="D12">
-        <v>0.9995438664905527</v>
+        <v>1.086631633434177</v>
       </c>
       <c r="E12">
-        <v>0.9958542065941564</v>
+        <v>1.104076179050462</v>
       </c>
       <c r="F12">
-        <v>1.001637852711672</v>
+        <v>1.105975666008234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038310934717874</v>
+        <v>1.057093817946748</v>
       </c>
       <c r="J12">
-        <v>1.006873082898321</v>
+        <v>1.098727406409209</v>
       </c>
       <c r="K12">
-        <v>1.014679810519</v>
+        <v>1.090063245856778</v>
       </c>
       <c r="L12">
-        <v>1.011061266822386</v>
+        <v>1.107449822802638</v>
       </c>
       <c r="M12">
-        <v>1.016733741176234</v>
+        <v>1.109343118729661</v>
       </c>
       <c r="N12">
-        <v>1.008302958165994</v>
+        <v>1.100287725352105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769295917611129</v>
+        <v>1.092583935996385</v>
       </c>
       <c r="D13">
-        <v>1.000275980665793</v>
+        <v>1.086724375549595</v>
       </c>
       <c r="E13">
-        <v>0.9967160321961598</v>
+        <v>1.104189207795486</v>
       </c>
       <c r="F13">
-        <v>1.002476236457509</v>
+        <v>1.10608517356399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038658534262065</v>
+        <v>1.057129028951095</v>
       </c>
       <c r="J13">
-        <v>1.007647148706707</v>
+        <v>1.098826298521141</v>
       </c>
       <c r="K13">
-        <v>1.015353879084065</v>
+        <v>1.090146546689328</v>
       </c>
       <c r="L13">
-        <v>1.011862173050438</v>
+        <v>1.107553518370133</v>
       </c>
       <c r="M13">
-        <v>1.017512273929495</v>
+        <v>1.109443323339733</v>
       </c>
       <c r="N13">
-        <v>1.009078123236614</v>
+        <v>1.100386757902179</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9798869714994356</v>
+        <v>1.092966076995102</v>
       </c>
       <c r="D14">
-        <v>1.002651175936665</v>
+        <v>1.087028043205377</v>
       </c>
       <c r="E14">
-        <v>0.9995121548768334</v>
+        <v>1.104559342768157</v>
       </c>
       <c r="F14">
-        <v>1.005196345591842</v>
+        <v>1.106443771706336</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039785527044156</v>
+        <v>1.05724425575574</v>
       </c>
       <c r="J14">
-        <v>1.01015798091106</v>
+        <v>1.099150099330059</v>
       </c>
       <c r="K14">
-        <v>1.017540171031702</v>
+        <v>1.090419265772016</v>
       </c>
       <c r="L14">
-        <v>1.014460258057523</v>
+        <v>1.1078930614593</v>
       </c>
       <c r="M14">
-        <v>1.020037768478288</v>
+        <v>1.109771428120628</v>
       </c>
       <c r="N14">
-        <v>1.011592521110693</v>
+        <v>1.100711018545387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9816868668714461</v>
+        <v>1.09320135591592</v>
       </c>
       <c r="D15">
-        <v>1.004096993229082</v>
+        <v>1.087214983656861</v>
       </c>
       <c r="E15">
-        <v>1.001214283057819</v>
+        <v>1.104787233486998</v>
       </c>
       <c r="F15">
-        <v>1.006852230502</v>
+        <v>1.106664554647465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040470993988769</v>
+        <v>1.057315140325377</v>
       </c>
       <c r="J15">
-        <v>1.011686014154528</v>
+        <v>1.099349430938591</v>
       </c>
       <c r="K15">
-        <v>1.018870557192658</v>
+        <v>1.090587127419414</v>
       </c>
       <c r="L15">
-        <v>1.016041535576976</v>
+        <v>1.108102095028375</v>
       </c>
       <c r="M15">
-        <v>1.021574854428368</v>
+        <v>1.109973414207248</v>
       </c>
       <c r="N15">
-        <v>1.013122724336635</v>
+        <v>1.100910633227667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9918463654930363</v>
+        <v>1.094568203590874</v>
       </c>
       <c r="D16">
-        <v>1.012261070453638</v>
+        <v>1.088300650685287</v>
       </c>
       <c r="E16">
-        <v>1.010827169563084</v>
+        <v>1.106111216002869</v>
       </c>
       <c r="F16">
-        <v>1.01620431929222</v>
+        <v>1.107947172747124</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04433342742899</v>
+        <v>1.057726043091716</v>
       </c>
       <c r="J16">
-        <v>1.020309425574053</v>
+        <v>1.100507015365614</v>
       </c>
       <c r="K16">
-        <v>1.02637638279558</v>
+        <v>1.091561588163654</v>
       </c>
       <c r="L16">
-        <v>1.024967537845255</v>
+        <v>1.109316189859766</v>
       </c>
       <c r="M16">
-        <v>1.030251199015386</v>
+        <v>1.111146489425066</v>
       </c>
       <c r="N16">
-        <v>1.021758381989495</v>
+        <v>1.102069861557352</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9979626389826948</v>
+        <v>1.095423353326912</v>
       </c>
       <c r="D17">
-        <v>1.017178321682415</v>
+        <v>1.088979566430472</v>
       </c>
       <c r="E17">
-        <v>1.016618563517626</v>
+        <v>1.106939596734186</v>
       </c>
       <c r="F17">
-        <v>1.021838833787246</v>
+        <v>1.108749610962443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046652691540243</v>
+        <v>1.057982326812336</v>
       </c>
       <c r="J17">
-        <v>1.02549933573638</v>
+        <v>1.101230865361912</v>
       </c>
       <c r="K17">
-        <v>1.030891710714705</v>
+        <v>1.092170605560142</v>
       </c>
       <c r="L17">
-        <v>1.030341351075856</v>
+        <v>1.110075524097538</v>
       </c>
       <c r="M17">
-        <v>1.035474485950724</v>
+        <v>1.111880092108312</v>
       </c>
       <c r="N17">
-        <v>1.026955662419544</v>
+        <v>1.102794739503672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001445666428035</v>
+        <v>1.095921353931989</v>
       </c>
       <c r="D18">
-        <v>1.019979183906643</v>
+        <v>1.08937482172956</v>
       </c>
       <c r="E18">
-        <v>1.019917957589934</v>
+        <v>1.107422025670823</v>
       </c>
       <c r="F18">
-        <v>1.025048912046776</v>
+        <v>1.109216909250881</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047971209559279</v>
+        <v>1.058131289402034</v>
       </c>
       <c r="J18">
-        <v>1.02845416925932</v>
+        <v>1.101652267003186</v>
       </c>
       <c r="K18">
-        <v>1.033461737448396</v>
+        <v>1.092525038841742</v>
       </c>
       <c r="L18">
-        <v>1.033401515485176</v>
+        <v>1.110517636666069</v>
       </c>
       <c r="M18">
-        <v>1.038448836516508</v>
+        <v>1.112307195193635</v>
       </c>
       <c r="N18">
-        <v>1.02991469214501</v>
+        <v>1.103216739583612</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002619635913028</v>
+        <v>1.096091025816774</v>
       </c>
       <c r="D19">
-        <v>1.020923320244955</v>
+        <v>1.089509468187243</v>
       </c>
       <c r="E19">
-        <v>1.021030254655654</v>
+        <v>1.107586395117061</v>
       </c>
       <c r="F19">
-        <v>1.026131106566992</v>
+        <v>1.109376119703653</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048415237426302</v>
+        <v>1.058181993443804</v>
       </c>
       <c r="J19">
-        <v>1.029449989763518</v>
+        <v>1.101795818084917</v>
       </c>
       <c r="K19">
-        <v>1.034327744796145</v>
+        <v>1.092645757268454</v>
       </c>
       <c r="L19">
-        <v>1.034432938935723</v>
+        <v>1.110668251970586</v>
       </c>
       <c r="M19">
-        <v>1.039451319050205</v>
+        <v>1.112452692502178</v>
       </c>
       <c r="N19">
-        <v>1.030911926828546</v>
+        <v>1.103360494524344</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973153255879217</v>
+        <v>1.095331686240197</v>
       </c>
       <c r="D20">
-        <v>1.016657835749258</v>
+        <v>1.088906802456478</v>
       </c>
       <c r="E20">
-        <v>1.016005487263486</v>
+        <v>1.106850797323439</v>
       </c>
       <c r="F20">
-        <v>1.021242357997599</v>
+        <v>1.108663594807698</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04640746453059</v>
+        <v>1.057954884229803</v>
       </c>
       <c r="J20">
-        <v>1.024950130642544</v>
+        <v>1.101153286910922</v>
       </c>
       <c r="K20">
-        <v>1.030413967565693</v>
+        <v>1.092105346333146</v>
       </c>
       <c r="L20">
-        <v>1.029772619223981</v>
+        <v>1.109994137126924</v>
       </c>
       <c r="M20">
-        <v>1.034921694515991</v>
+        <v>1.111801465955281</v>
       </c>
       <c r="N20">
-        <v>1.02640567739148</v>
+        <v>1.102717050882383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9790207895533047</v>
+        <v>1.092853581641004</v>
       </c>
       <c r="D21">
-        <v>1.001955456106473</v>
+        <v>1.086938653874523</v>
       </c>
       <c r="E21">
-        <v>0.9986931234951794</v>
+        <v>1.104450380988269</v>
       </c>
       <c r="F21">
-        <v>1.004399573433263</v>
+        <v>1.106338207140828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039455534451294</v>
+        <v>1.0572103473723</v>
       </c>
       <c r="J21">
-        <v>1.009422605348209</v>
+        <v>1.099054784114259</v>
       </c>
       <c r="K21">
-        <v>1.016899876234366</v>
+        <v>1.090338992181549</v>
       </c>
       <c r="L21">
-        <v>1.013699297423957</v>
+        <v>1.107793109989914</v>
       </c>
       <c r="M21">
-        <v>1.019298071198121</v>
+        <v>1.1096748449384</v>
       </c>
       <c r="N21">
-        <v>1.010856101230195</v>
+        <v>1.100615567971047</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.966567601834827</v>
+        <v>1.091288075125885</v>
       </c>
       <c r="D22">
-        <v>0.991958163156851</v>
+        <v>1.085694274532253</v>
       </c>
       <c r="E22">
-        <v>0.9869252219617258</v>
+        <v>1.102934116001179</v>
       </c>
       <c r="F22">
-        <v>0.992952134459947</v>
+        <v>1.104869134132173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034703387370427</v>
+        <v>1.056737415591575</v>
       </c>
       <c r="J22">
-        <v>0.998848686842176</v>
+        <v>1.097727857033112</v>
       </c>
       <c r="K22">
-        <v>1.007690631668064</v>
+        <v>1.089221035185358</v>
       </c>
       <c r="L22">
-        <v>1.002760219958433</v>
+        <v>1.106401837090256</v>
       </c>
       <c r="M22">
-        <v>1.008664515927773</v>
+        <v>1.108330354891539</v>
       </c>
       <c r="N22">
-        <v>1.000267166547038</v>
+        <v>1.099286756501245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.973270339308976</v>
+        <v>1.092118696797409</v>
       </c>
       <c r="D23">
-        <v>0.9973378135747266</v>
+        <v>1.086354610699271</v>
       </c>
       <c r="E23">
-        <v>0.9932573813792077</v>
+        <v>1.103738595537313</v>
       </c>
       <c r="F23">
-        <v>0.9991117003604957</v>
+        <v>1.105648594173227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037262903150465</v>
+        <v>1.05698858653656</v>
       </c>
       <c r="J23">
-        <v>1.004540207520026</v>
+        <v>1.098432010159148</v>
       </c>
       <c r="K23">
-        <v>1.012648154942192</v>
+        <v>1.089814394998319</v>
       </c>
       <c r="L23">
-        <v>1.008647665413188</v>
+        <v>1.107140090562613</v>
       </c>
       <c r="M23">
-        <v>1.014387555160152</v>
+        <v>1.109043807467552</v>
       </c>
       <c r="N23">
-        <v>1.005966769837076</v>
+        <v>1.099991909605487</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9976080778603652</v>
+        <v>1.095373109102092</v>
       </c>
       <c r="D24">
-        <v>1.016893227406226</v>
+        <v>1.088939683664357</v>
       </c>
       <c r="E24">
-        <v>1.016282751274292</v>
+        <v>1.106890924275604</v>
       </c>
       <c r="F24">
-        <v>1.021512114262004</v>
+        <v>1.108702464122674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04651837723943</v>
+        <v>1.057967285968246</v>
       </c>
       <c r="J24">
-        <v>1.025198514786486</v>
+        <v>1.101188343768382</v>
       </c>
       <c r="K24">
-        <v>1.030630034559476</v>
+        <v>1.092134836628033</v>
       </c>
       <c r="L24">
-        <v>1.030029832608823</v>
+        <v>1.110030914848507</v>
       </c>
       <c r="M24">
-        <v>1.035171699025032</v>
+        <v>1.11183699618445</v>
       </c>
       <c r="N24">
-        <v>1.026654414269396</v>
+        <v>1.102752157524602</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022575680916928</v>
+        <v>1.099118670036773</v>
       </c>
       <c r="D25">
-        <v>1.036977653810285</v>
+        <v>1.091910407926748</v>
       </c>
       <c r="E25">
-        <v>1.039954575674781</v>
+        <v>1.110519672306737</v>
       </c>
       <c r="F25">
-        <v>1.044543506951622</v>
+        <v>1.112216998725465</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05592980936092</v>
+        <v>1.059082529150681</v>
       </c>
       <c r="J25">
-        <v>1.046366458156007</v>
+        <v>1.104355343621941</v>
       </c>
       <c r="K25">
-        <v>1.049027831319705</v>
+        <v>1.094796445997215</v>
       </c>
       <c r="L25">
-        <v>1.051962767095833</v>
+        <v>1.113354519386903</v>
       </c>
       <c r="M25">
-        <v>1.056487568216677</v>
+        <v>1.11504726899753</v>
       </c>
       <c r="N25">
-        <v>1.047852418546498</v>
+        <v>1.105923654881213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.102082522762076</v>
+        <v>1.040526273476427</v>
       </c>
       <c r="D2">
-        <v>1.094257490690614</v>
+        <v>1.051421368944527</v>
       </c>
       <c r="E2">
-        <v>1.113391606586077</v>
+        <v>1.057002773944745</v>
       </c>
       <c r="F2">
-        <v>1.114997830539742</v>
+        <v>1.061129923681173</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059956023969702</v>
+        <v>1.062624750637719</v>
       </c>
       <c r="J2">
-        <v>1.106857096876727</v>
+        <v>1.061558910274806</v>
       </c>
       <c r="K2">
-        <v>1.096895294349004</v>
+        <v>1.062207956098015</v>
       </c>
       <c r="L2">
-        <v>1.115981648082747</v>
+        <v>1.067721234527056</v>
       </c>
       <c r="M2">
-        <v>1.11758394284288</v>
+        <v>1.071798580303828</v>
       </c>
       <c r="N2">
-        <v>1.108428960912575</v>
+        <v>1.063066445689905</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.10422154200374</v>
+        <v>1.052657040373065</v>
       </c>
       <c r="D3">
-        <v>1.095949256407573</v>
+        <v>1.061179474566891</v>
       </c>
       <c r="E3">
-        <v>1.115464572156477</v>
+        <v>1.068536705716841</v>
       </c>
       <c r="F3">
-        <v>1.11700462431261</v>
+        <v>1.072350359274642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060581209124672</v>
+        <v>1.067106103992733</v>
       </c>
       <c r="J3">
-        <v>1.108660130122111</v>
+        <v>1.071808355278889</v>
       </c>
       <c r="K3">
-        <v>1.098405816743618</v>
+        <v>1.07108511575157</v>
       </c>
       <c r="L3">
-        <v>1.117876004065712</v>
+        <v>1.07836178087934</v>
       </c>
       <c r="M3">
-        <v>1.119412566801111</v>
+        <v>1.082134206005269</v>
       </c>
       <c r="N3">
-        <v>1.110234554671979</v>
+        <v>1.073330446081522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.105599835991208</v>
+        <v>1.060148181329562</v>
       </c>
       <c r="D4">
-        <v>1.097038368185687</v>
+        <v>1.067202862382657</v>
       </c>
       <c r="E4">
-        <v>1.1168004306016</v>
+        <v>1.075664300714704</v>
       </c>
       <c r="F4">
-        <v>1.118297647980167</v>
+        <v>1.079283532086526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060981636179896</v>
+        <v>1.06985314112898</v>
       </c>
       <c r="J4">
-        <v>1.109820776565464</v>
+        <v>1.078129118418673</v>
       </c>
       <c r="K4">
-        <v>1.0993771794384</v>
+        <v>1.076552614861511</v>
       </c>
       <c r="L4">
-        <v>1.119095881899714</v>
+        <v>1.084927868050158</v>
       </c>
       <c r="M4">
-        <v>1.120589880915466</v>
+        <v>1.088510737039682</v>
       </c>
       <c r="N4">
-        <v>1.11139684936641</v>
+        <v>1.079660185429966</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.10617791521561</v>
+        <v>1.063219148063137</v>
       </c>
       <c r="D5">
-        <v>1.097494921465341</v>
+        <v>1.06967135138448</v>
       </c>
       <c r="E5">
-        <v>1.117360741291013</v>
+        <v>1.078587313671412</v>
       </c>
       <c r="F5">
-        <v>1.118839945891896</v>
+        <v>1.082126622262567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061149003011765</v>
+        <v>1.070974330809215</v>
       </c>
       <c r="J5">
-        <v>1.110307294651117</v>
+        <v>1.080718156902189</v>
       </c>
       <c r="K5">
-        <v>1.099784116697289</v>
+        <v>1.078790445305662</v>
       </c>
       <c r="L5">
-        <v>1.119607335066373</v>
+        <v>1.08761836933068</v>
       </c>
       <c r="M5">
-        <v>1.121083432109933</v>
+        <v>1.09112321748126</v>
       </c>
       <c r="N5">
-        <v>1.111884058363549</v>
+        <v>1.082252900645095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.106274898684202</v>
+        <v>1.063730382479565</v>
       </c>
       <c r="D6">
-        <v>1.097571502715146</v>
+        <v>1.070082239104124</v>
       </c>
       <c r="E6">
-        <v>1.117454745477548</v>
+        <v>1.079073978006082</v>
       </c>
       <c r="F6">
-        <v>1.118930925331829</v>
+        <v>1.082599968050154</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06117704792098</v>
+        <v>1.071160686026339</v>
       </c>
       <c r="J6">
-        <v>1.110388900839612</v>
+        <v>1.081149035408284</v>
       </c>
       <c r="K6">
-        <v>1.099852360461777</v>
+        <v>1.079162773260733</v>
       </c>
       <c r="L6">
-        <v>1.119693129993999</v>
+        <v>1.088066190721887</v>
       </c>
       <c r="M6">
-        <v>1.12116622071361</v>
+        <v>1.091558031754173</v>
       </c>
       <c r="N6">
-        <v>1.111965780442192</v>
+        <v>1.082684391048092</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.105607565598013</v>
+        <v>1.060189514351781</v>
       </c>
       <c r="D7">
-        <v>1.097044473783927</v>
+        <v>1.067236089773883</v>
       </c>
       <c r="E7">
-        <v>1.116807922506335</v>
+        <v>1.075703638246319</v>
       </c>
       <c r="F7">
-        <v>1.118304899218307</v>
+        <v>1.079321794814819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060983876350748</v>
+        <v>1.069868251276086</v>
       </c>
       <c r="J7">
-        <v>1.109827282977454</v>
+        <v>1.078163973600996</v>
       </c>
       <c r="K7">
-        <v>1.099382622515685</v>
+        <v>1.076582748674203</v>
       </c>
       <c r="L7">
-        <v>1.11910272135998</v>
+        <v>1.08496408532812</v>
       </c>
       <c r="M7">
-        <v>1.12059648120198</v>
+        <v>1.088545905469328</v>
       </c>
       <c r="N7">
-        <v>1.11140336501825</v>
+        <v>1.079695090110646</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.102806633291052</v>
+        <v>1.044704952927082</v>
       </c>
       <c r="D8">
-        <v>1.094830400105281</v>
+        <v>1.054783175751107</v>
       </c>
       <c r="E8">
-        <v>1.114093329604487</v>
+        <v>1.060974707998473</v>
       </c>
       <c r="F8">
-        <v>1.115677193493949</v>
+        <v>1.064994030347128</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060168165876118</v>
+        <v>1.064172738445961</v>
       </c>
       <c r="J8">
-        <v>1.107467706993061</v>
+        <v>1.065091319135353</v>
       </c>
       <c r="K8">
-        <v>1.097407048860958</v>
+        <v>1.065268889173292</v>
       </c>
       <c r="L8">
-        <v>1.116623092760034</v>
+        <v>1.071387539943276</v>
       </c>
       <c r="M8">
-        <v>1.118203178927321</v>
+        <v>1.075360110863302</v>
       </c>
       <c r="N8">
-        <v>1.109040438165313</v>
+        <v>1.066603870976207</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.097825220251417</v>
+        <v>1.014269729751518</v>
       </c>
       <c r="D9">
-        <v>1.090885095374592</v>
+        <v>1.030294706826438</v>
       </c>
       <c r="E9">
-        <v>1.109266479333308</v>
+        <v>1.032074281537474</v>
       </c>
       <c r="F9">
-        <v>1.111003359379538</v>
+        <v>1.036876372326784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058698800623202</v>
+        <v>1.052810269640051</v>
       </c>
       <c r="J9">
-        <v>1.103262353031657</v>
+        <v>1.039328458232986</v>
       </c>
       <c r="K9">
-        <v>1.093878445989734</v>
+        <v>1.042914677216952</v>
       </c>
       <c r="L9">
-        <v>1.112207222124352</v>
+        <v>1.044667559766453</v>
       </c>
       <c r="M9">
-        <v>1.113939228856248</v>
+        <v>1.049398204108008</v>
       </c>
       <c r="N9">
-        <v>1.104829112118922</v>
+        <v>1.040804423856317</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.094471455128121</v>
+        <v>0.9911431873705286</v>
       </c>
       <c r="D10">
-        <v>1.088223825177023</v>
+        <v>1.011695843113484</v>
       </c>
       <c r="E10">
-        <v>1.106017498461618</v>
+        <v>1.010161542053901</v>
       </c>
       <c r="F10">
-        <v>1.107856387145977</v>
+        <v>1.015556732699005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057697009426221</v>
+        <v>1.044066481423826</v>
       </c>
       <c r="J10">
-        <v>1.100425103254182</v>
+        <v>1.019712664675263</v>
       </c>
       <c r="K10">
-        <v>1.091492654907747</v>
+        <v>1.025857088391456</v>
       </c>
       <c r="L10">
-        <v>1.109230269500414</v>
+        <v>1.024349718904181</v>
       </c>
       <c r="M10">
-        <v>1.111063476907644</v>
+        <v>1.029650673743965</v>
       </c>
       <c r="N10">
-        <v>1.101987833121326</v>
+        <v>1.021160773621779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.093010997907081</v>
+        <v>0.9802318338218737</v>
       </c>
       <c r="D11">
-        <v>1.087063736425201</v>
+        <v>1.002928182302714</v>
       </c>
       <c r="E11">
-        <v>1.104602852858471</v>
+        <v>0.9998382629493959</v>
       </c>
       <c r="F11">
-        <v>1.10648592501369</v>
+        <v>1.005513592301719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057257792958209</v>
+        <v>1.039916889305229</v>
       </c>
       <c r="J11">
-        <v>1.099188158614302</v>
+        <v>1.010450759538711</v>
       </c>
       <c r="K11">
-        <v>1.090451317775457</v>
+        <v>1.017795087861484</v>
       </c>
       <c r="L11">
-        <v>1.107932972532389</v>
+        <v>1.014763230038908</v>
       </c>
       <c r="M11">
-        <v>1.109809993944096</v>
+        <v>1.020332274051762</v>
       </c>
       <c r="N11">
-        <v>1.100749131878178</v>
+        <v>1.011885715517578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.092467239402929</v>
+        <v>0.97601789838028</v>
       </c>
       <c r="D12">
-        <v>1.086631633434177</v>
+        <v>0.9995438664905545</v>
       </c>
       <c r="E12">
-        <v>1.104076179050462</v>
+        <v>0.9958542065941581</v>
       </c>
       <c r="F12">
-        <v>1.105975666008234</v>
+        <v>1.001637852711674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057093817946748</v>
+        <v>1.038310934717875</v>
       </c>
       <c r="J12">
-        <v>1.098727406409209</v>
+        <v>1.006873082898323</v>
       </c>
       <c r="K12">
-        <v>1.090063245856778</v>
+        <v>1.014679810519002</v>
       </c>
       <c r="L12">
-        <v>1.107449822802638</v>
+        <v>1.011061266822388</v>
       </c>
       <c r="M12">
-        <v>1.109343118729661</v>
+        <v>1.016733741176236</v>
       </c>
       <c r="N12">
-        <v>1.100287725352105</v>
+        <v>1.008302958165996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.092583935996385</v>
+        <v>0.9769295917611115</v>
       </c>
       <c r="D13">
-        <v>1.086724375549595</v>
+        <v>1.000275980665791</v>
       </c>
       <c r="E13">
-        <v>1.104189207795486</v>
+        <v>0.9967160321961581</v>
       </c>
       <c r="F13">
-        <v>1.10608517356399</v>
+        <v>1.002476236457508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057129028951095</v>
+        <v>1.038658534262065</v>
       </c>
       <c r="J13">
-        <v>1.098826298521141</v>
+        <v>1.007647148706706</v>
       </c>
       <c r="K13">
-        <v>1.090146546689328</v>
+        <v>1.015353879084063</v>
       </c>
       <c r="L13">
-        <v>1.107553518370133</v>
+        <v>1.011862173050436</v>
       </c>
       <c r="M13">
-        <v>1.109443323339733</v>
+        <v>1.017512273929493</v>
       </c>
       <c r="N13">
-        <v>1.100386757902179</v>
+        <v>1.009078123236613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.092966076995102</v>
+        <v>0.9798869714994374</v>
       </c>
       <c r="D14">
-        <v>1.087028043205377</v>
+        <v>1.002651175936667</v>
       </c>
       <c r="E14">
-        <v>1.104559342768157</v>
+        <v>0.9995121548768353</v>
       </c>
       <c r="F14">
-        <v>1.106443771706336</v>
+        <v>1.005196345591843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05724425575574</v>
+        <v>1.039785527044156</v>
       </c>
       <c r="J14">
-        <v>1.099150099330059</v>
+        <v>1.010157980911061</v>
       </c>
       <c r="K14">
-        <v>1.090419265772016</v>
+        <v>1.017540171031703</v>
       </c>
       <c r="L14">
-        <v>1.1078930614593</v>
+        <v>1.014460258057525</v>
       </c>
       <c r="M14">
-        <v>1.109771428120628</v>
+        <v>1.02003776847829</v>
       </c>
       <c r="N14">
-        <v>1.100711018545387</v>
+        <v>1.011592521110695</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.09320135591592</v>
+        <v>0.9816868668714525</v>
       </c>
       <c r="D15">
-        <v>1.087214983656861</v>
+        <v>1.004096993229088</v>
       </c>
       <c r="E15">
-        <v>1.104787233486998</v>
+        <v>1.001214283057826</v>
       </c>
       <c r="F15">
-        <v>1.106664554647465</v>
+        <v>1.006852230502006</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057315140325377</v>
+        <v>1.040470993988772</v>
       </c>
       <c r="J15">
-        <v>1.099349430938591</v>
+        <v>1.011686014154534</v>
       </c>
       <c r="K15">
-        <v>1.090587127419414</v>
+        <v>1.018870557192664</v>
       </c>
       <c r="L15">
-        <v>1.108102095028375</v>
+        <v>1.016041535576982</v>
       </c>
       <c r="M15">
-        <v>1.109973414207248</v>
+        <v>1.021574854428374</v>
       </c>
       <c r="N15">
-        <v>1.100910633227667</v>
+        <v>1.013122724336641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.094568203590874</v>
+        <v>0.9918463654930375</v>
       </c>
       <c r="D16">
-        <v>1.088300650685287</v>
+        <v>1.012261070453639</v>
       </c>
       <c r="E16">
-        <v>1.106111216002869</v>
+        <v>1.010827169563085</v>
       </c>
       <c r="F16">
-        <v>1.107947172747124</v>
+        <v>1.016204319292221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057726043091716</v>
+        <v>1.04433342742899</v>
       </c>
       <c r="J16">
-        <v>1.100507015365614</v>
+        <v>1.020309425574054</v>
       </c>
       <c r="K16">
-        <v>1.091561588163654</v>
+        <v>1.026376382795581</v>
       </c>
       <c r="L16">
-        <v>1.109316189859766</v>
+        <v>1.024967537845256</v>
       </c>
       <c r="M16">
-        <v>1.111146489425066</v>
+        <v>1.030251199015387</v>
       </c>
       <c r="N16">
-        <v>1.102069861557352</v>
+        <v>1.021758381989496</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.095423353326912</v>
+        <v>0.9979626389826963</v>
       </c>
       <c r="D17">
-        <v>1.088979566430472</v>
+        <v>1.017178321682416</v>
       </c>
       <c r="E17">
-        <v>1.106939596734186</v>
+        <v>1.016618563517627</v>
       </c>
       <c r="F17">
-        <v>1.108749610962443</v>
+        <v>1.021838833787247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057982326812336</v>
+        <v>1.046652691540244</v>
       </c>
       <c r="J17">
-        <v>1.101230865361912</v>
+        <v>1.025499335736382</v>
       </c>
       <c r="K17">
-        <v>1.092170605560142</v>
+        <v>1.030891710714706</v>
       </c>
       <c r="L17">
-        <v>1.110075524097538</v>
+        <v>1.030341351075857</v>
       </c>
       <c r="M17">
-        <v>1.111880092108312</v>
+        <v>1.035474485950725</v>
       </c>
       <c r="N17">
-        <v>1.102794739503672</v>
+        <v>1.026955662419545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.095921353931989</v>
+        <v>1.001445666428032</v>
       </c>
       <c r="D18">
-        <v>1.08937482172956</v>
+        <v>1.01997918390664</v>
       </c>
       <c r="E18">
-        <v>1.107422025670823</v>
+        <v>1.019917957589931</v>
       </c>
       <c r="F18">
-        <v>1.109216909250881</v>
+        <v>1.025048912046773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058131289402034</v>
+        <v>1.047971209559277</v>
       </c>
       <c r="J18">
-        <v>1.101652267003186</v>
+        <v>1.028454169259317</v>
       </c>
       <c r="K18">
-        <v>1.092525038841742</v>
+        <v>1.033461737448393</v>
       </c>
       <c r="L18">
-        <v>1.110517636666069</v>
+        <v>1.033401515485173</v>
       </c>
       <c r="M18">
-        <v>1.112307195193635</v>
+        <v>1.038448836516505</v>
       </c>
       <c r="N18">
-        <v>1.103216739583612</v>
+        <v>1.029914692145007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.096091025816774</v>
+        <v>1.002619635913026</v>
       </c>
       <c r="D19">
-        <v>1.089509468187243</v>
+        <v>1.020923320244954</v>
       </c>
       <c r="E19">
-        <v>1.107586395117061</v>
+        <v>1.021030254655652</v>
       </c>
       <c r="F19">
-        <v>1.109376119703653</v>
+        <v>1.026131106566991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058181993443804</v>
+        <v>1.048415237426302</v>
       </c>
       <c r="J19">
-        <v>1.101795818084917</v>
+        <v>1.029449989763516</v>
       </c>
       <c r="K19">
-        <v>1.092645757268454</v>
+        <v>1.034327744796143</v>
       </c>
       <c r="L19">
-        <v>1.110668251970586</v>
+        <v>1.034432938935721</v>
       </c>
       <c r="M19">
-        <v>1.112452692502178</v>
+        <v>1.039451319050203</v>
       </c>
       <c r="N19">
-        <v>1.103360494524344</v>
+        <v>1.030911926828544</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.095331686240197</v>
+        <v>0.9973153255879261</v>
       </c>
       <c r="D20">
-        <v>1.088906802456478</v>
+        <v>1.016657835749262</v>
       </c>
       <c r="E20">
-        <v>1.106850797323439</v>
+        <v>1.016005487263491</v>
       </c>
       <c r="F20">
-        <v>1.108663594807698</v>
+        <v>1.021242357997603</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057954884229803</v>
+        <v>1.046407464530592</v>
       </c>
       <c r="J20">
-        <v>1.101153286910922</v>
+        <v>1.024950130642549</v>
       </c>
       <c r="K20">
-        <v>1.092105346333146</v>
+        <v>1.030413967565697</v>
       </c>
       <c r="L20">
-        <v>1.109994137126924</v>
+        <v>1.029772619223986</v>
       </c>
       <c r="M20">
-        <v>1.111801465955281</v>
+        <v>1.034921694515996</v>
       </c>
       <c r="N20">
-        <v>1.102717050882383</v>
+        <v>1.026405677391484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.092853581641004</v>
+        <v>0.9790207895533064</v>
       </c>
       <c r="D21">
-        <v>1.086938653874523</v>
+        <v>1.001955456106475</v>
       </c>
       <c r="E21">
-        <v>1.104450380988269</v>
+        <v>0.9986931234951811</v>
       </c>
       <c r="F21">
-        <v>1.106338207140828</v>
+        <v>1.004399573433265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0572103473723</v>
+        <v>1.039455534451295</v>
       </c>
       <c r="J21">
-        <v>1.099054784114259</v>
+        <v>1.009422605348211</v>
       </c>
       <c r="K21">
-        <v>1.090338992181549</v>
+        <v>1.016899876234367</v>
       </c>
       <c r="L21">
-        <v>1.107793109989914</v>
+        <v>1.013699297423959</v>
       </c>
       <c r="M21">
-        <v>1.1096748449384</v>
+        <v>1.019298071198123</v>
       </c>
       <c r="N21">
-        <v>1.100615567971047</v>
+        <v>1.010856101230197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.091288075125885</v>
+        <v>0.9665676018348259</v>
       </c>
       <c r="D22">
-        <v>1.085694274532253</v>
+        <v>0.9919581631568501</v>
       </c>
       <c r="E22">
-        <v>1.102934116001179</v>
+        <v>0.9869252219617243</v>
       </c>
       <c r="F22">
-        <v>1.104869134132173</v>
+        <v>0.9929521344599456</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056737415591575</v>
+        <v>1.034703387370427</v>
       </c>
       <c r="J22">
-        <v>1.097727857033112</v>
+        <v>0.9988486868421746</v>
       </c>
       <c r="K22">
-        <v>1.089221035185358</v>
+        <v>1.007690631668063</v>
       </c>
       <c r="L22">
-        <v>1.106401837090256</v>
+        <v>1.002760219958432</v>
       </c>
       <c r="M22">
-        <v>1.108330354891539</v>
+        <v>1.008664515927771</v>
       </c>
       <c r="N22">
-        <v>1.099286756501245</v>
+        <v>1.000267166547036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.092118696797409</v>
+        <v>0.9732703393089737</v>
       </c>
       <c r="D23">
-        <v>1.086354610699271</v>
+        <v>0.9973378135747251</v>
       </c>
       <c r="E23">
-        <v>1.103738595537313</v>
+        <v>0.9932573813792056</v>
       </c>
       <c r="F23">
-        <v>1.105648594173227</v>
+        <v>0.9991117003604939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05698858653656</v>
+        <v>1.037262903150464</v>
       </c>
       <c r="J23">
-        <v>1.098432010159148</v>
+        <v>1.004540207520024</v>
       </c>
       <c r="K23">
-        <v>1.089814394998319</v>
+        <v>1.01264815494219</v>
       </c>
       <c r="L23">
-        <v>1.107140090562613</v>
+        <v>1.008647665413186</v>
       </c>
       <c r="M23">
-        <v>1.109043807467552</v>
+        <v>1.01438755516015</v>
       </c>
       <c r="N23">
-        <v>1.099991909605487</v>
+        <v>1.005966769837075</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.095373109102092</v>
+        <v>0.9976080778603653</v>
       </c>
       <c r="D24">
-        <v>1.088939683664357</v>
+        <v>1.016893227406227</v>
       </c>
       <c r="E24">
-        <v>1.106890924275604</v>
+        <v>1.016282751274292</v>
       </c>
       <c r="F24">
-        <v>1.108702464122674</v>
+        <v>1.021512114262005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057967285968246</v>
+        <v>1.04651837723943</v>
       </c>
       <c r="J24">
-        <v>1.101188343768382</v>
+        <v>1.025198514786486</v>
       </c>
       <c r="K24">
-        <v>1.092134836628033</v>
+        <v>1.030630034559476</v>
       </c>
       <c r="L24">
-        <v>1.110030914848507</v>
+        <v>1.030029832608823</v>
       </c>
       <c r="M24">
-        <v>1.11183699618445</v>
+        <v>1.035171699025032</v>
       </c>
       <c r="N24">
-        <v>1.102752157524602</v>
+        <v>1.026654414269396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.099118670036773</v>
+        <v>1.02257568091693</v>
       </c>
       <c r="D25">
-        <v>1.091910407926748</v>
+        <v>1.036977653810286</v>
       </c>
       <c r="E25">
-        <v>1.110519672306737</v>
+        <v>1.039954575674783</v>
       </c>
       <c r="F25">
-        <v>1.112216998725465</v>
+        <v>1.044543506951624</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059082529150681</v>
+        <v>1.05592980936092</v>
       </c>
       <c r="J25">
-        <v>1.104355343621941</v>
+        <v>1.046366458156008</v>
       </c>
       <c r="K25">
-        <v>1.094796445997215</v>
+        <v>1.049027831319706</v>
       </c>
       <c r="L25">
-        <v>1.113354519386903</v>
+        <v>1.051962767095834</v>
       </c>
       <c r="M25">
-        <v>1.11504726899753</v>
+        <v>1.056487568216679</v>
       </c>
       <c r="N25">
-        <v>1.105923654881213</v>
+        <v>1.0478524185465</v>
       </c>
     </row>
   </sheetData>
